--- a/docs/shr-core-Dosage-extension.xlsx
+++ b/docs/shr-core-Dosage-extension.xlsx
@@ -308,10 +308,10 @@
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
   </si>
   <si>
-    <t>dosagebodysite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DosageBodySite-extension]]} {[]}
+    <t>dosagebodylocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DosageBodyLocation-extension]]} {[]}
 </t>
   </si>
   <si>
